--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H2">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N2">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q2">
-        <v>308.4637135931071</v>
+        <v>299.5877913041573</v>
       </c>
       <c r="R2">
-        <v>2776.173422337964</v>
+        <v>2696.290121737416</v>
       </c>
       <c r="S2">
-        <v>0.2233990053392552</v>
+        <v>0.3011345009294627</v>
       </c>
       <c r="T2">
-        <v>0.2233990053392552</v>
+        <v>0.3011345009294628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H3">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P3">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q3">
-        <v>60.18697924307689</v>
+        <v>53.65332788228177</v>
       </c>
       <c r="R3">
-        <v>541.682813187692</v>
+        <v>482.879950940536</v>
       </c>
       <c r="S3">
-        <v>0.0435892803748513</v>
+        <v>0.05393032888523967</v>
       </c>
       <c r="T3">
-        <v>0.0435892803748513</v>
+        <v>0.05393032888523968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H4">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N4">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q4">
-        <v>222.8240043671204</v>
+        <v>43.79850899824822</v>
       </c>
       <c r="R4">
-        <v>2005.416039304084</v>
+        <v>394.186580984234</v>
       </c>
       <c r="S4">
-        <v>0.1613760670954877</v>
+        <v>0.04402463161541735</v>
       </c>
       <c r="T4">
-        <v>0.1613760670954877</v>
+        <v>0.04402463161541736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H5">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I5">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J5">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N5">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q5">
-        <v>14.47605804646222</v>
+        <v>8.695637729651999</v>
       </c>
       <c r="R5">
-        <v>130.28452241816</v>
+        <v>78.260739566868</v>
       </c>
       <c r="S5">
-        <v>0.01048401100778697</v>
+        <v>0.008740531503580748</v>
       </c>
       <c r="T5">
-        <v>0.01048401100778697</v>
+        <v>0.008740531503580748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H6">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I6">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J6">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N6">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q6">
-        <v>121.5071492899831</v>
+        <v>83.49824938735978</v>
       </c>
       <c r="R6">
-        <v>1093.564343609848</v>
+        <v>751.484244486238</v>
       </c>
       <c r="S6">
-        <v>0.08799925273802832</v>
+        <v>0.08392933352954519</v>
       </c>
       <c r="T6">
-        <v>0.08799925273802832</v>
+        <v>0.08392933352954521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H7">
         <v>11.938186</v>
       </c>
       <c r="I7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N7">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q7">
-        <v>221.1162742918249</v>
+        <v>240.9054464859813</v>
       </c>
       <c r="R7">
-        <v>1990.046468626424</v>
+        <v>2168.149018373832</v>
       </c>
       <c r="S7">
-        <v>0.1601392759158542</v>
+        <v>0.2421491913370192</v>
       </c>
       <c r="T7">
-        <v>0.1601392759158542</v>
+        <v>0.2421491913370192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H8">
         <v>11.938186</v>
       </c>
       <c r="I8">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J8">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P8">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q8">
-        <v>43.14387730111912</v>
+        <v>43.14387730111911</v>
       </c>
       <c r="R8">
-        <v>388.2948957100721</v>
+        <v>388.294895710072</v>
       </c>
       <c r="S8">
-        <v>0.03124613641999626</v>
+        <v>0.04336662019062119</v>
       </c>
       <c r="T8">
-        <v>0.03124613641999627</v>
+        <v>0.0433666201906212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H9">
         <v>11.938186</v>
       </c>
       <c r="I9">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J9">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N9">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q9">
-        <v>159.7270975393716</v>
+        <v>35.21939034869089</v>
       </c>
       <c r="R9">
-        <v>1437.543877854344</v>
+        <v>316.974513138218</v>
       </c>
       <c r="S9">
-        <v>0.1156793267524844</v>
+        <v>0.03540122075577314</v>
       </c>
       <c r="T9">
-        <v>0.1156793267524844</v>
+        <v>0.03540122075577314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H10">
         <v>11.938186</v>
       </c>
       <c r="I10">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J10">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N10">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q10">
-        <v>10.37688350561778</v>
+        <v>6.992362674803999</v>
       </c>
       <c r="R10">
-        <v>93.39195155056001</v>
+        <v>62.931264073236</v>
       </c>
       <c r="S10">
-        <v>0.007515261444119947</v>
+        <v>0.007028462792921848</v>
       </c>
       <c r="T10">
-        <v>0.007515261444119947</v>
+        <v>0.007028462792921849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H11">
         <v>11.938186</v>
       </c>
       <c r="I11">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J11">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N11">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q11">
-        <v>87.10006061284089</v>
+        <v>67.14286640952511</v>
       </c>
       <c r="R11">
-        <v>783.9005455155681</v>
+        <v>604.285797685726</v>
       </c>
       <c r="S11">
-        <v>0.06308057009118594</v>
+        <v>0.06748951110186763</v>
       </c>
       <c r="T11">
-        <v>0.06308057009118594</v>
+        <v>0.06748951110186763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H12">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I12">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J12">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N12">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q12">
-        <v>2.470210739701333</v>
+        <v>67.39365111796668</v>
       </c>
       <c r="R12">
-        <v>22.231896657312</v>
+        <v>606.5428600617</v>
       </c>
       <c r="S12">
-        <v>0.001789003367039653</v>
+        <v>0.06774159055974054</v>
       </c>
       <c r="T12">
-        <v>0.001789003367039653</v>
+        <v>0.06774159055974054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H13">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I13">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J13">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P13">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q13">
-        <v>0.4819838313706667</v>
+        <v>12.06956279785556</v>
       </c>
       <c r="R13">
-        <v>4.337854482336001</v>
+        <v>108.6260651807</v>
       </c>
       <c r="S13">
-        <v>0.0003490676658968173</v>
+        <v>0.01213187544708404</v>
       </c>
       <c r="T13">
-        <v>0.0003490676658968173</v>
+        <v>0.01213187544708404</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H14">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I14">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J14">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N14">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q14">
-        <v>1.784398697141333</v>
+        <v>9.852675978769446</v>
       </c>
       <c r="R14">
-        <v>16.059588274272</v>
+        <v>88.67408380892502</v>
       </c>
       <c r="S14">
-        <v>0.001292316977665228</v>
+        <v>0.009903543301182816</v>
       </c>
       <c r="T14">
-        <v>0.001292316977665228</v>
+        <v>0.009903543301182816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H15">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I15">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J15">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N15">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q15">
-        <v>0.1159258365866667</v>
+        <v>1.95612368865</v>
       </c>
       <c r="R15">
-        <v>1.04333252928</v>
+        <v>17.60511319785</v>
       </c>
       <c r="S15">
-        <v>8.395709266712623E-05</v>
+        <v>0.001966222749510765</v>
       </c>
       <c r="T15">
-        <v>8.395709266712623E-05</v>
+        <v>0.001966222749510765</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H16">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I16">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J16">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N16">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q16">
-        <v>0.9730423771093333</v>
+        <v>18.78331511333056</v>
       </c>
       <c r="R16">
-        <v>8.757381393984</v>
+        <v>169.049836019975</v>
       </c>
       <c r="S16">
-        <v>0.0007047075218899492</v>
+        <v>0.01888028947318168</v>
       </c>
       <c r="T16">
-        <v>0.0007047075218899492</v>
+        <v>0.01888028947318168</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H17">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I17">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J17">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N17">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q17">
-        <v>53.43923684036578</v>
+        <v>1.329398780438667</v>
       </c>
       <c r="R17">
-        <v>480.9531315632921</v>
+        <v>11.964589023948</v>
       </c>
       <c r="S17">
-        <v>0.03870235567472391</v>
+        <v>0.001336262190595078</v>
       </c>
       <c r="T17">
-        <v>0.03870235567472391</v>
+        <v>0.001336262190595078</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H18">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I18">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J18">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P18">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q18">
-        <v>10.42698410458622</v>
+        <v>0.2380826947008889</v>
       </c>
       <c r="R18">
-        <v>93.84285694127601</v>
+        <v>2.142744252308</v>
       </c>
       <c r="S18">
-        <v>0.00755154585451648</v>
+        <v>0.0002393118662699621</v>
       </c>
       <c r="T18">
-        <v>0.007551545854516481</v>
+        <v>0.0002393118662699621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H19">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I19">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J19">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N19">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q19">
-        <v>38.60274067373911</v>
+        <v>0.1943526610141111</v>
       </c>
       <c r="R19">
-        <v>347.424666063652</v>
+        <v>1.749173949127</v>
       </c>
       <c r="S19">
-        <v>0.02795730418151601</v>
+        <v>0.000195356063489845</v>
       </c>
       <c r="T19">
-        <v>0.02795730418151601</v>
+        <v>0.000195356063489845</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H20">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I20">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J20">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N20">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q20">
-        <v>2.507878432275556</v>
+        <v>0.03858625260599999</v>
       </c>
       <c r="R20">
-        <v>22.57090589048</v>
+        <v>0.347276273454</v>
       </c>
       <c r="S20">
-        <v>0.001816283480335592</v>
+        <v>3.878546542455432E-05</v>
       </c>
       <c r="T20">
-        <v>0.001816283480335592</v>
+        <v>3.878546542455432E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H21">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I21">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J21">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N21">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q21">
-        <v>21.05028579559378</v>
+        <v>0.3705173379098889</v>
       </c>
       <c r="R21">
-        <v>189.452572160344</v>
+        <v>3.334656041189</v>
       </c>
       <c r="S21">
-        <v>0.01524527100469877</v>
+        <v>0.0003724302420719478</v>
       </c>
       <c r="T21">
-        <v>0.01524527100469877</v>
+        <v>0.0003724302420719478</v>
       </c>
     </row>
   </sheetData>
